--- a/data/trans_camb/P24_2_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P24_2_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,1</t>
+          <t>11,89</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,65</t>
+          <t>5,73</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>8,29</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-7,25</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,71</t>
+          <t>6,91</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>1,89</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5,17</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-1,29</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>7,7</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 3,93</t>
+          <t>-9,95; 9,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 14,81</t>
+          <t>-2,78; 28,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 15,91</t>
+          <t>-6,32; 20,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 10,54</t>
+          <t>-6,19; 24,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 13,4</t>
+          <t>-14,43; 21,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,95; 6,75</t>
+          <t>-17,04; 15,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 6,17</t>
+          <t>-22,64; 7,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 12,42</t>
+          <t>-12,42; 32,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 8,54</t>
+          <t>-8,63; 14,98</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-6,91; 16,44</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-11,27; 9,78</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-5,39; 26,57</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-31,45%</t>
+          <t>17,78%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>116,1%</t>
+          <t>260,05%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>107,54%</t>
+          <t>125,29%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>181,37%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>12,96%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-11,22%</t>
+          <t>-2,38%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-0,41%</t>
+          <t>-29,71%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>43,7%</t>
+          <t>28,32%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>12,52%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>34,17%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-8,52%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>50,84%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-89,48; 304,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-31,66; 807,94</t>
+          <t>-55,15; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-44,35; 768,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-40,62; 97,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-34,89; 133,42</t>
+          <t>-45,37; 133,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-58,41; 59,75</t>
+          <t>-54,3; 96,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-41,6; 76,14</t>
+          <t>-68,06; 50,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-13,85; 154,17</t>
+          <t>-44,54; 205,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-35,16; 107,87</t>
+          <t>-44,14; 152,14</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-33,36; 172,42</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-56,94; 99,5</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-30,86; 236,13</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>7,86</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,14</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,28</t>
+          <t>13,98</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,85</t>
+          <t>6,94</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,53</t>
+          <t>11,2</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>8,82</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>10,01</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>7,4</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>8,0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4,43</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>11,95</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 11,4</t>
+          <t>0,02; 23,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 10,21</t>
+          <t>-0,93; 10,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 2,95</t>
+          <t>-4,29; 5,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 9,08</t>
+          <t>5,22; 28,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 9,92</t>
+          <t>1,0; 13,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,93; 10,52</t>
+          <t>4,66; 18,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 8,19</t>
+          <t>2,79; 16,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 8,63</t>
+          <t>3,67; 19,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 5,47</t>
+          <t>2,46; 15,87</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3,28; 12,7</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0,29; 9,11</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>6,43; 20,98</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>39,16%</t>
+          <t>160,67%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>89,03%</t>
+          <t>99,76%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-12,91%</t>
+          <t>10,33%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>46,09%</t>
+          <t>285,59%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>52,17%</t>
+          <t>86,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>59,5%</t>
+          <t>138,83%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>43,19%</t>
+          <t>109,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>64,41%</t>
+          <t>124,04%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>27,7%</t>
+          <t>113,21%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>122,43%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>67,86%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>182,91%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-48,99; 296,54</t>
+          <t>-14,11; 789,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-25,86; 293,53</t>
+          <t>-20,73; 373,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-71,28; 85,83</t>
+          <t>-60,57; 201,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 122,42</t>
+          <t>48,7; 934,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 132,11</t>
+          <t>4,72; 272,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,0; 138,54</t>
+          <t>40,16; 343,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 133,32</t>
+          <t>21,88; 293,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,78; 141,74</t>
+          <t>30,11; 354,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-16,21; 89,94</t>
+          <t>21,58; 296,89</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>36,68; 276,68</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>2,69; 190,69</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>75,75; 400,56</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-5,42</t>
+          <t>-4,83</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,49</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,03</t>
+          <t>7,49</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>4,22</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>6,53</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>3,02</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4,59</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2,64</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 3,62</t>
+          <t>-5,46; 6,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 4,05</t>
+          <t>-5,51; 6,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,94; -1,78</t>
+          <t>-10,44; -0,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 9,01</t>
+          <t>-7,59; 3,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,86; 12,15</t>
+          <t>-1,02; 12,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,72; 11,83</t>
+          <t>1,43; 14,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 4,79</t>
+          <t>-2,31; 10,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 7,17</t>
+          <t>-0,17; 14,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 4,05</t>
+          <t>-1,44; 7,3</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0,13; 9,52</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-3,72; 4,1</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-1,68; 7,86</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-13,24%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-10,8%</t>
+          <t>16,46%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-77,93%</t>
+          <t>-76,78%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>45,01%</t>
+          <t>-28,02%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>90,14%</t>
+          <t>82,34%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>83,68%</t>
+          <t>123,98%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>69,93%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>43,9%</t>
+          <t>108,05%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>49,16%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>74,52%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1,47%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>42,96%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1412,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-60,2; 87,37</t>
+          <t>-63,08; 241,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-59,86; 87,4</t>
+          <t>-60,19; 214,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -27,45</t>
+          <t>-100,0; 17,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-19,12; 186,35</t>
+          <t>-77,26; 120,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,99; 250,01</t>
+          <t>-23,57; 362,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,73; 232,04</t>
+          <t>6,75; 401,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-27,48; 90,72</t>
+          <t>-28,96; 278,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 139,91</t>
+          <t>-8,71; 379,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-31,33; 77,88</t>
+          <t>-18,57; 183,2</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-0,21; 220,9</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-46,62; 102,3</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-25,65; 192,7</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,36</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,45</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,18</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,42</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 4,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 6,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 1,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 6,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,88; 8,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,02; 7,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 4,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,69; 6,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 3,95</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>55,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-19,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>35,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>53,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>45,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>25,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>53,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>19,96%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,358 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-43,4; 90,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 141,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-57,42; 33,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 86,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>16,03; 112,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,42; 96,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 67,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>18,91; 100,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 55,8</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>4,09</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>4,41</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,65</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>7,64</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>5,64</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>8,09</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>4,86</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>9,14</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>4,93</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>6,29</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>2,07</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>8,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,56; 12,25</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0,45; 9,01</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-4,3; 2,81</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2,44; 16,83</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0,81; 11,04</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>3,26; 12,8</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0,02; 9,31</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>3,34; 15,82</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1,45; 8,97</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>3,03; 9,79</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-1,07; 5,03</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>4,67; 13,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>76,05%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>82,07%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-12,01%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>141,95%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>59,71%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>85,65%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>51,4%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>96,77%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>65,32%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>83,26%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>27,41%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>110,13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-14,3; 266,36</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1,59; 221,49</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-61,55; 72,73</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>28,88; 389,83</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>7,37; 148,59</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>26,59; 175,92</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-1,53; 131,39</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>28,42; 206,8</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>14,11; 132,02</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>33,34; 152,45</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-11,67; 77,81</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>51,47; 205,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
